--- a/5.Control/Dias de Tramitacao na SECGS.xlsx
+++ b/5.Control/Dias de Tramitacao na SECGS.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre\PUCPR POS\PUC LEAN TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre\PUCPR POS\Puc_Lean2016\5.Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" tabRatio="868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" tabRatio="868"/>
   </bookViews>
   <sheets>
     <sheet name="PROCCESS" sheetId="13" r:id="rId1"/>
-    <sheet name="Template" sheetId="1" r:id="rId2"/>
+    <sheet name="Template" sheetId="14" r:id="rId2"/>
     <sheet name="Exemplo preenchido" sheetId="6" r:id="rId3"/>
     <sheet name="Controle das Metas" sheetId="5" r:id="rId4"/>
     <sheet name="Tabela dinamica MEDIAS" sheetId="10" r:id="rId5"/>
@@ -22,9 +22,9 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="127" r:id="rId8"/>
-    <pivotCache cacheId="130" r:id="rId9"/>
-    <pivotCache cacheId="133" r:id="rId10"/>
+    <pivotCache cacheId="142" r:id="rId8"/>
+    <pivotCache cacheId="145" r:id="rId9"/>
+    <pivotCache cacheId="148" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
   <si>
     <t>COORDENADORIA / SECRETARIA RESPONSAVEL</t>
   </si>
@@ -64,16 +64,8 @@
     <t>Dados informados manualmente</t>
   </si>
   <si>
-    <t>Setor 
-Relevante ?</t>
-  </si>
-  <si>
     <t>Horas do 
 Tramite</t>
-  </si>
-  <si>
-    <t>Desvio Padrao
-do Tramite</t>
   </si>
   <si>
     <t>Coordenadoria de Segurança, Transporte e Apoio Administrativo</t>
@@ -85,25 +77,10 @@
     <t>DISPENSA</t>
   </si>
   <si>
-    <t>041ZE</t>
-  </si>
-  <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>SESEG</t>
   </si>
   <si>
     <t>CIP</t>
-  </si>
-  <si>
-    <t>SECADM</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Para conhecimento.</t>
   </si>
   <si>
     <t>para informar</t>
@@ -128,12 +105,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ VALOR CALCULADO ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ... </t>
   </si>
   <si>
     <t>Tramite dentro da linha de corte ?</t>
@@ -199,8 +170,34 @@
     <t xml:space="preserve">StdDev of Horas do </t>
   </si>
   <si>
-    <t>MEDIAS
-do Setor</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROCESSO:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - TI retorna/informa/ os dados pelo SELECT (Definir a Frequencia (quinzenal/mensal)).
+ - Esssa Planilha deve ser alimentada com esses dados.
+ - Atualiza-se as tabelas dinamicas (MACRO).
+ - Informar Manualmente na aba de Graficos, de acordo com a frequência desejada.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -212,7 +209,7 @@
     <numFmt numFmtId="165" formatCode="00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +256,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,54 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,17 +569,93 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,11 +1327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="744423168"/>
-        <c:axId val="744423712"/>
+        <c:axId val="617826448"/>
+        <c:axId val="617822096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="744423168"/>
+        <c:axId val="617826448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744423712"/>
+        <c:crossAx val="617822096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="744423712"/>
+        <c:axId val="617822096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744423168"/>
+        <c:crossAx val="617826448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2100,11 +2147,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rodrigues, Andre" refreshedDate="43222.685612152774" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rodrigues, Andre" refreshedDate="43222.730328240737" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:L14" sheet="Exemplo preenchido"/>
+    <worksheetSource ref="A5:I12" sheet="Exemplo preenchido"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="9">
     <cacheField name="COORDENADORIA / SECRETARIA RESPONSAVEL" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -2115,34 +2162,30 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="TRAMITE / SETOR" numFmtId="0">
-      <sharedItems count="5">
-        <s v="041ZE"/>
-        <s v="DG"/>
+      <sharedItems count="7">
         <s v="SESEG"/>
         <s v="CIP"/>
-        <s v="SECADM"/>
+        <s v="SAPRE"/>
+        <s v="SECGS"/>
+        <s v="041ZE" u="1"/>
+        <s v="SECADM" u="1"/>
+        <s v="DG" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DATA INICIO" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-23T13:32:00" maxDate="2015-06-08T14:01:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-24T20:09:00" maxDate="2015-06-08T14:01:00"/>
     </cacheField>
     <cacheField name="DATA FIM" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-24T13:32:00" maxDate="2015-06-08T16:42:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-05-14T19:14:00" maxDate="2015-06-08T16:42:00"/>
     </cacheField>
     <cacheField name="COMENTARIOS TRÂMITE" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Setor _x000a_Relevante ?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
     <cacheField name="Tramite dentro da linha de corte ?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Horas do _x000a_Tramite" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="10.9"/>
-    </cacheField>
-    <cacheField name="Desvio Padrao_x000a_do Tramite" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="10.9"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2154,11 +2197,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rodrigues, Andre" refreshedDate="43222.68561226852" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rodrigues, Andre" refreshedDate="43222.730328356483" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:L14" sheet="Exemplo preenchido"/>
+    <worksheetSource ref="A5:I12" sheet="Exemplo preenchido"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="9">
     <cacheField name="COORDENADORIA / SECRETARIA RESPONSAVEL" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -2169,34 +2212,30 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="TRAMITE / SETOR" numFmtId="0">
-      <sharedItems count="5">
-        <s v="041ZE"/>
-        <s v="DG"/>
+      <sharedItems count="7">
         <s v="SESEG"/>
         <s v="CIP"/>
-        <s v="SECADM"/>
+        <s v="SAPRE"/>
+        <s v="SECGS"/>
+        <s v="041ZE" u="1"/>
+        <s v="SECADM" u="1"/>
+        <s v="DG" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DATA INICIO" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-23T13:32:00" maxDate="2015-06-08T14:01:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-24T20:09:00" maxDate="2015-06-08T14:01:00"/>
     </cacheField>
     <cacheField name="DATA FIM" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-24T13:32:00" maxDate="2015-06-08T16:42:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-05-14T19:14:00" maxDate="2015-06-08T16:42:00"/>
     </cacheField>
     <cacheField name="COMENTARIOS TRÂMITE" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Setor _x000a_Relevante ?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
     <cacheField name="Tramite dentro da linha de corte ?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Horas do _x000a_Tramite" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="10.9"/>
-    </cacheField>
-    <cacheField name="Desvio Padrao_x000a_do Tramite" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="10.9"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2208,11 +2247,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rodrigues, Andre" refreshedDate="43222.685612499998" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rodrigues, Andre" refreshedDate="43222.730328587961" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:L14" sheet="Exemplo preenchido"/>
+    <worksheetSource ref="A5:I12" sheet="Exemplo preenchido"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="9">
     <cacheField name="COORDENADORIA / SECRETARIA RESPONSAVEL" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -2223,34 +2262,30 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="TRAMITE / SETOR" numFmtId="0">
-      <sharedItems count="5">
-        <s v="041ZE"/>
-        <s v="DG"/>
+      <sharedItems count="7">
         <s v="SESEG"/>
         <s v="CIP"/>
-        <s v="SECADM"/>
+        <s v="SAPRE"/>
+        <s v="SECGS"/>
+        <s v="041ZE" u="1"/>
+        <s v="SECADM" u="1"/>
+        <s v="DG" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DATA INICIO" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-23T13:32:00" maxDate="2015-06-08T14:01:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-24T20:09:00" maxDate="2015-06-08T14:01:00"/>
     </cacheField>
     <cacheField name="DATA FIM" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-04-24T13:32:00" maxDate="2015-06-08T16:42:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-05-14T19:14:00" maxDate="2015-06-08T16:42:00"/>
     </cacheField>
     <cacheField name="COMENTARIOS TRÂMITE" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Setor _x000a_Relevante ?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
     <cacheField name="Tramite dentro da linha de corte ?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Horas do _x000a_Tramite" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="10.9"/>
-    </cacheField>
-    <cacheField name="Desvio Padrao_x000a_do Tramite" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="10.9"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2262,385 +2297,267 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="0"/>
-    <d v="2015-04-23T13:32:00"/>
-    <d v="2015-04-24T13:32:00"/>
-    <s v="-"/>
-    <m/>
+    <d v="2015-04-24T20:09:00"/>
+    <d v="2015-05-14T19:14:00"/>
+    <s v="para informar"/>
     <s v="S"/>
-    <s v=" [ VALOR CALCULADO ] "/>
-    <s v=" [ VALOR CALCULADO ] "/>
+    <n v="1"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="1"/>
-    <d v="2015-04-24T13:32:00"/>
-    <d v="2015-04-24T20:09:00"/>
-    <s v="Para conhecimento."/>
-    <m/>
+    <d v="2015-05-14T19:14:00"/>
+    <d v="2015-05-19T16:05:00"/>
+    <s v="Para análise"/>
     <s v="S"/>
-    <s v=" [ VALOR CALCULADO ] "/>
-    <s v=" [ VALOR CALCULADO ] "/>
+    <n v="10.9"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
+    <d v="2015-05-19T16:05:00"/>
+    <d v="2015-05-21T17:13:00"/>
+    <s v="Para complementar o Projeto B ico."/>
+    <s v="S"/>
+    <n v="8.5"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="2"/>
-    <d v="2015-04-24T20:09:00"/>
-    <d v="2015-05-14T19:14:00"/>
-    <s v="para informar"/>
+    <d v="2015-05-21T17:13:00"/>
+    <d v="2015-05-25T12:16:00"/>
+    <s v="Para providências"/>
     <s v="S"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
+    <d v="2015-05-25T12:16:00"/>
+    <d v="2015-06-03T16:18:00"/>
+    <s v="Em atendimento ao Documento nº 092135/2015."/>
     <s v="S"/>
-    <s v=" ... "/>
-    <s v=" ... "/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="1"/>
+    <d v="2015-06-03T16:18:00"/>
+    <d v="2015-06-08T14:01:00"/>
+    <s v="Em devolução"/>
+    <s v="N"/>
+    <n v="10.9"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="3"/>
+    <d v="2015-06-08T14:01:00"/>
+    <d v="2015-06-08T16:42:00"/>
+    <s v="Para análise."/>
+    <s v="N"/>
+    <n v="2.2000000000000002"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
+    <d v="2015-04-24T20:09:00"/>
+    <d v="2015-05-14T19:14:00"/>
+    <s v="para informar"/>
+    <s v="S"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="1"/>
     <d v="2015-05-14T19:14:00"/>
     <d v="2015-05-19T16:05:00"/>
     <s v="Para análise"/>
     <s v="S"/>
+    <n v="10.9"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
+    <d v="2015-05-19T16:05:00"/>
+    <d v="2015-05-21T17:13:00"/>
+    <s v="Para complementar o Projeto B ico."/>
     <s v="S"/>
-    <n v="10.9"/>
-    <s v=" ... "/>
+    <n v="8.5"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="2"/>
-    <d v="2015-05-19T16:05:00"/>
     <d v="2015-05-21T17:13:00"/>
-    <s v="Para complementar o Projeto B ico."/>
+    <d v="2015-05-25T12:16:00"/>
+    <s v="Para providências"/>
     <s v="S"/>
-    <s v="S"/>
-    <n v="8.5"/>
-    <m/>
+    <n v="1"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="0"/>
-    <d v="2015-05-21T17:13:00"/>
     <d v="2015-05-25T12:16:00"/>
-    <s v="Para providências"/>
-    <m/>
+    <d v="2015-06-03T16:18:00"/>
+    <s v="Em atendimento ao Documento nº 092135/2015."/>
+    <s v="S"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="1"/>
+    <d v="2015-06-03T16:18:00"/>
+    <d v="2015-06-08T14:01:00"/>
+    <s v="Em devolução"/>
+    <s v="N"/>
+    <n v="10.9"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="3"/>
+    <d v="2015-06-08T14:01:00"/>
+    <d v="2015-06-08T16:42:00"/>
+    <s v="Para análise."/>
+    <s v="N"/>
+    <n v="2.2000000000000002"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
+    <d v="2015-04-24T20:09:00"/>
+    <d v="2015-05-14T19:14:00"/>
+    <s v="para informar"/>
     <s v="S"/>
     <n v="1"/>
-    <m/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="1"/>
+    <d v="2015-05-14T19:14:00"/>
+    <d v="2015-05-19T16:05:00"/>
+    <s v="Para análise"/>
+    <s v="S"/>
+    <n v="10.9"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
+    <d v="2015-05-19T16:05:00"/>
+    <d v="2015-05-21T17:13:00"/>
+    <s v="Para complementar o Projeto B ico."/>
+    <s v="S"/>
+    <n v="8.5"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="2"/>
+    <d v="2015-05-21T17:13:00"/>
+    <d v="2015-05-25T12:16:00"/>
+    <s v="Para providências"/>
+    <s v="S"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="0"/>
     <d v="2015-05-25T12:16:00"/>
     <d v="2015-06-03T16:18:00"/>
     <s v="Em atendimento ao Documento nº 092135/2015."/>
     <s v="S"/>
-    <s v="S"/>
     <n v="0.5"/>
-    <m/>
+  </r>
+  <r>
+    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
+    <s v="2462/2015"/>
+    <s v="DISPENSA"/>
+    <x v="1"/>
+    <d v="2015-06-03T16:18:00"/>
+    <d v="2015-06-08T14:01:00"/>
+    <s v="Em devolução"/>
+    <s v="N"/>
+    <n v="10.9"/>
   </r>
   <r>
     <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
     <s v="2462/2015"/>
     <s v="DISPENSA"/>
     <x v="3"/>
-    <d v="2015-06-03T16:18:00"/>
-    <d v="2015-06-08T14:01:00"/>
-    <s v="Em devolução"/>
-    <s v="S"/>
-    <s v="N"/>
-    <n v="10.9"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="4"/>
     <d v="2015-06-08T14:01:00"/>
     <d v="2015-06-08T16:42:00"/>
     <s v="Para análise."/>
-    <m/>
-    <m/>
+    <s v="N"/>
     <n v="2.2000000000000002"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="0"/>
-    <d v="2015-04-23T13:32:00"/>
-    <d v="2015-04-24T13:32:00"/>
-    <s v="-"/>
-    <m/>
-    <s v="S"/>
-    <s v=" [ VALOR CALCULADO ] "/>
-    <s v=" [ VALOR CALCULADO ] "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="1"/>
-    <d v="2015-04-24T13:32:00"/>
-    <d v="2015-04-24T20:09:00"/>
-    <s v="Para conhecimento."/>
-    <m/>
-    <s v="S"/>
-    <s v=" [ VALOR CALCULADO ] "/>
-    <s v=" [ VALOR CALCULADO ] "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="2"/>
-    <d v="2015-04-24T20:09:00"/>
-    <d v="2015-05-14T19:14:00"/>
-    <s v="para informar"/>
-    <s v="S"/>
-    <s v="S"/>
-    <s v=" ... "/>
-    <s v=" ... "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="3"/>
-    <d v="2015-05-14T19:14:00"/>
-    <d v="2015-05-19T16:05:00"/>
-    <s v="Para análise"/>
-    <s v="S"/>
-    <s v="S"/>
-    <n v="10.9"/>
-    <s v=" ... "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="2"/>
-    <d v="2015-05-19T16:05:00"/>
-    <d v="2015-05-21T17:13:00"/>
-    <s v="Para complementar o Projeto B ico."/>
-    <s v="S"/>
-    <s v="S"/>
-    <n v="8.5"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="0"/>
-    <d v="2015-05-21T17:13:00"/>
-    <d v="2015-05-25T12:16:00"/>
-    <s v="Para providências"/>
-    <m/>
-    <s v="S"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="2"/>
-    <d v="2015-05-25T12:16:00"/>
-    <d v="2015-06-03T16:18:00"/>
-    <s v="Em atendimento ao Documento nº 092135/2015."/>
-    <s v="S"/>
-    <s v="S"/>
-    <n v="0.5"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="3"/>
-    <d v="2015-06-03T16:18:00"/>
-    <d v="2015-06-08T14:01:00"/>
-    <s v="Em devolução"/>
-    <s v="S"/>
-    <s v="N"/>
-    <n v="10.9"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="4"/>
-    <d v="2015-06-08T14:01:00"/>
-    <d v="2015-06-08T16:42:00"/>
-    <s v="Para análise."/>
-    <m/>
-    <m/>
-    <n v="2.2000000000000002"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="0"/>
-    <d v="2015-04-23T13:32:00"/>
-    <d v="2015-04-24T13:32:00"/>
-    <s v="-"/>
-    <m/>
-    <s v="S"/>
-    <s v=" [ VALOR CALCULADO ] "/>
-    <s v=" [ VALOR CALCULADO ] "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="1"/>
-    <d v="2015-04-24T13:32:00"/>
-    <d v="2015-04-24T20:09:00"/>
-    <s v="Para conhecimento."/>
-    <m/>
-    <s v="S"/>
-    <s v=" [ VALOR CALCULADO ] "/>
-    <s v=" [ VALOR CALCULADO ] "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="2"/>
-    <d v="2015-04-24T20:09:00"/>
-    <d v="2015-05-14T19:14:00"/>
-    <s v="para informar"/>
-    <s v="S"/>
-    <s v="S"/>
-    <s v=" ... "/>
-    <s v=" ... "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="3"/>
-    <d v="2015-05-14T19:14:00"/>
-    <d v="2015-05-19T16:05:00"/>
-    <s v="Para análise"/>
-    <s v="S"/>
-    <s v="S"/>
-    <n v="10.9"/>
-    <s v=" ... "/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="2"/>
-    <d v="2015-05-19T16:05:00"/>
-    <d v="2015-05-21T17:13:00"/>
-    <s v="Para complementar o Projeto B ico."/>
-    <s v="S"/>
-    <s v="S"/>
-    <n v="8.5"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="0"/>
-    <d v="2015-05-21T17:13:00"/>
-    <d v="2015-05-25T12:16:00"/>
-    <s v="Para providências"/>
-    <m/>
-    <s v="S"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="2"/>
-    <d v="2015-05-25T12:16:00"/>
-    <d v="2015-06-03T16:18:00"/>
-    <s v="Em atendimento ao Documento nº 092135/2015."/>
-    <s v="S"/>
-    <s v="S"/>
-    <n v="0.5"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="3"/>
-    <d v="2015-06-03T16:18:00"/>
-    <d v="2015-06-08T14:01:00"/>
-    <s v="Em devolução"/>
-    <s v="S"/>
-    <s v="N"/>
-    <n v="10.9"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Coordenadoria de Segurança, Transporte e Apoio Administrativo"/>
-    <s v="2462/2015"/>
-    <s v="DISPENSA"/>
-    <x v="4"/>
-    <d v="2015-06-08T14:01:00"/>
-    <d v="2015-06-08T16:42:00"/>
-    <s v="Para análise."/>
-    <m/>
-    <m/>
-    <n v="2.2000000000000002"/>
-    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="8">
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2648,28 +2565,23 @@
     <pivotField numFmtId="22" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2679,7 +2591,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Horas do " fld="9" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="Average of Horas do " fld="8" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2691,19 +2603,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="148" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="8">
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2711,28 +2625,23 @@
     <pivotField numFmtId="22" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2742,7 +2651,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="StdDev of Horas do " fld="9" subtotal="stdDev" baseField="3" baseItem="0"/>
+    <dataField name="StdDev of Horas do " fld="8" subtotal="stdDev" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2754,19 +2663,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="133" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="142" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="8">
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2774,28 +2685,23 @@
     <pivotField numFmtId="22" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2805,7 +2711,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Horas do " fld="9" baseField="3" baseItem="0"/>
+    <dataField name="Sum of Horas do " fld="8" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3082,14 +2988,551 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:P32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3097,61 +3540,58 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="44.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3173,20 +3613,62 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:G3"/>
-    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="H2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3198,64 +3680,56 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A2:N15"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:N20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="44.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="12" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3278,340 +3752,222 @@
         <v>5</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="25">
+        <v>42118.839583333334</v>
+      </c>
+      <c r="F6" s="25">
+        <v>42138.801388888889</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="25">
+        <v>42138.801388888889</v>
+      </c>
+      <c r="F7" s="25">
+        <v>42143.670138888891</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="26">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="25">
+        <v>42143.670138888891</v>
+      </c>
+      <c r="F8" s="25">
+        <v>42145.717361111114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="26">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="25">
+        <v>42145.717361111114</v>
+      </c>
+      <c r="F9" s="25">
+        <v>42149.511111111111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="25">
+        <v>42149.511111111111</v>
+      </c>
+      <c r="F10" s="25">
+        <v>42158.679166666669</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="25">
+        <v>42158.679166666669</v>
+      </c>
+      <c r="F11" s="25">
+        <v>42163.584027777775</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="26">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="41">
-        <v>42117.563888888886</v>
-      </c>
-      <c r="F6" s="41">
-        <v>42118.563888888886</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="41">
-        <v>42118.563888888886</v>
-      </c>
-      <c r="F7" s="41">
-        <v>42118.839583333334</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E12" s="25">
+        <v>42163.584027777775</v>
+      </c>
+      <c r="F12" s="25">
+        <v>42163.695833333331</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="41">
-        <v>42118.839583333334</v>
-      </c>
-      <c r="F8" s="41">
-        <v>42138.801388888889</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="41">
-        <v>42138.801388888889</v>
-      </c>
-      <c r="F9" s="41">
-        <v>42143.670138888891</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="42">
-        <v>10.9</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="41">
-        <v>42143.670138888891</v>
-      </c>
-      <c r="F10" s="41">
-        <v>42145.717361111114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="42">
-        <v>8.5</v>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="41">
-        <v>42145.717361111114</v>
-      </c>
-      <c r="F11" s="41">
-        <v>42149.511111111111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="42">
-        <v>1</v>
-      </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="41">
-        <v>42149.511111111111</v>
-      </c>
-      <c r="F12" s="41">
-        <v>42158.679166666669</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="41">
-        <v>42158.679166666669</v>
-      </c>
-      <c r="F13" s="41">
-        <v>42163.584027777775</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="42">
-        <v>10.9</v>
-      </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="41">
-        <v>42163.584027777775</v>
-      </c>
-      <c r="F14" s="41">
-        <v>42163.695833333331</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="1">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E15" s="41"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:G3"/>
-    <mergeCell ref="H2:N3"/>
+    <mergeCell ref="H2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3633,252 +3989,252 @@
   <sheetData>
     <row r="2" spans="3:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="E3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="E3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
       <c r="AO3" s="8"/>
     </row>
     <row r="4" spans="3:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="35">
+      <c r="E4" s="37">
         <v>2</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="36">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39">
         <v>9</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36">
+      <c r="H4" s="40"/>
+      <c r="I4" s="39">
         <v>16</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36">
+      <c r="J4" s="40"/>
+      <c r="K4" s="39">
         <v>23</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33">
+      <c r="L4" s="40"/>
+      <c r="M4" s="38">
         <v>30</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="35">
+      <c r="N4" s="38"/>
+      <c r="O4" s="37">
         <v>7</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="36">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39">
         <v>14</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="36">
+      <c r="R4" s="40"/>
+      <c r="S4" s="39">
         <v>21</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="33">
+      <c r="T4" s="40"/>
+      <c r="U4" s="38">
         <v>28</v>
       </c>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35">
+      <c r="V4" s="41"/>
+      <c r="W4" s="37">
         <v>4</v>
       </c>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="36">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39">
         <v>11</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="36">
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="39">
         <v>18</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="33">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="38">
         <v>25</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="35">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="37">
         <v>2</v>
       </c>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="36">
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="39">
         <v>9</v>
       </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="36">
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="39">
         <v>16</v>
       </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="36">
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="39">
         <v>23</v>
       </c>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="33">
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="38">
         <v>30</v>
       </c>
-      <c r="AN4" s="34"/>
+      <c r="AN4" s="41"/>
       <c r="AO4" s="8"/>
     </row>
     <row r="5" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AJ5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AL5" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AO5" s="9"/>
     </row>
     <row r="6" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="C6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="43"/>
       <c r="E6" s="15">
         <v>1</v>
       </c>
@@ -3953,10 +4309,10 @@
       <c r="AN6" s="19"/>
     </row>
     <row r="7" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="30"/>
+      <c r="C7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="45"/>
       <c r="E7" s="15">
         <v>2</v>
       </c>
@@ -4007,10 +4363,10 @@
       <c r="AN7" s="19"/>
     </row>
     <row r="8" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C8" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="47"/>
+      <c r="C8" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="49"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -4049,10 +4405,10 @@
       <c r="AN8" s="19"/>
     </row>
     <row r="9" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C9" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="47"/>
+      <c r="C9" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="49"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -4091,10 +4447,10 @@
       <c r="AN9" s="19"/>
     </row>
     <row r="10" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C10" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="49"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -4133,10 +4489,10 @@
       <c r="AN10" s="19"/>
     </row>
     <row r="11" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="32"/>
+      <c r="C11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="47"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -4175,10 +4531,10 @@
       <c r="AN11" s="19"/>
     </row>
     <row r="12" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C12" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="49"/>
+      <c r="C12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="33"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -4217,10 +4573,10 @@
       <c r="AN12" s="19"/>
     </row>
     <row r="13" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C13" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="49"/>
+      <c r="C13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="33"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -4259,10 +4615,10 @@
       <c r="AN13" s="19"/>
     </row>
     <row r="14" spans="3:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="49"/>
+      <c r="C14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -4302,11 +4658,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="AE3:AN3"/>
     <mergeCell ref="E4:F4"/>
@@ -4323,16 +4684,11 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4344,72 +4700,64 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>48</v>
+      <c r="A3" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="45">
+      <c r="A4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="29">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="45">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="45" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="45">
+      <c r="A7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="29">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="45">
-        <v>5.666666666666667</v>
+      <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4422,9 +4770,9 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -4435,59 +4783,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>48</v>
+      <c r="A3" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="45" t="e">
+      <c r="A4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="29">
+        <v>4.4814432199162511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="29" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="45" t="e">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="29" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="45" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45">
-        <v>5.6568542494923806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="45">
-        <v>4.9657493560052623</v>
+      <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4.8641546028061233</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4837,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4510,59 +4853,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>48</v>
+      <c r="A3" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="45">
+      <c r="A4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="45">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="45">
-        <v>0</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="45">
+      <c r="A7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="29">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="45">
-        <v>34</v>
+      <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
